--- a/medicine/Pharmacie/B._Braun/B._Braun.xlsx
+++ b/medicine/Pharmacie/B._Braun/B._Braun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le groupe allemand B. Braun, fondé en 1839, est une entreprise familiale non cotée en bourse. C’est l’un des plus grands fournisseurs[2] de produits et services médicaux au monde, avec des gammes complètes dans les domaines de l’anesthésie, des soins intensifs, de la cardiologie, de la chirurgie et du traitement extracorporel du sang (dialyse), à destination des établissements de soins, des pharmacies et des prestataires de soins à domicile.
-Avec plus de 63 000 collaborateurs[3] dans 64 pays, il réalise un chiffre d’affaires d’environ 8,8 milliards d’euros[4],[5].
+Le groupe allemand B. Braun, fondé en 1839, est une entreprise familiale non cotée en bourse. C’est l’un des plus grands fournisseurs de produits et services médicaux au monde, avec des gammes complètes dans les domaines de l’anesthésie, des soins intensifs, de la cardiologie, de la chirurgie et du traitement extracorporel du sang (dialyse), à destination des établissements de soins, des pharmacies et des prestataires de soins à domicile.
+Avec plus de 63 000 collaborateurs dans 64 pays, il réalise un chiffre d’affaires d’environ 8,8 milliards d’euros,.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’histoire de B. Braun[6] a débuté en Allemagne avec l’achat en 1839 de la pharmacie Rosen à Melsungen, par Julius Wilhem Braun. En six générations[6], la pharmacie est devenue une entreprise internationale[7].
-En 1976, B. Braun s’implante en France, où 3 de ses sites de production sont devenus des centres d’excellence[8],[9] du Groupe dans les domaines de la Stomathérapie (Saint-Jean-de-Luz), des filtres à veine cave, chambres implantables (Chasseneuil) et de l’incontinence urinaire (Nogent-le-Rotrou).
-En 2009, François Fillon (Premier ministre cette année là), inaugure l’extension du site de Nogent-le-Rotrou[10]. Il fit honneur à B. Braun en évoquant l’intérêt de l’entreprise, qui assure le maintien et la création d’emploi, et investit en France et en Europe.
-Entre 2015 et 2020, le Groupe B. Braun s’inscrit dans des projets d’investissements importants en France : 200 millions[11],[12] ont été alloués à l’innovation, la production et les services[13],[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’histoire de B. Braun a débuté en Allemagne avec l’achat en 1839 de la pharmacie Rosen à Melsungen, par Julius Wilhem Braun. En six générations, la pharmacie est devenue une entreprise internationale.
+En 1976, B. Braun s’implante en France, où 3 de ses sites de production sont devenus des centres d’excellence, du Groupe dans les domaines de la Stomathérapie (Saint-Jean-de-Luz), des filtres à veine cave, chambres implantables (Chasseneuil) et de l’incontinence urinaire (Nogent-le-Rotrou).
+En 2009, François Fillon (Premier ministre cette année là), inaugure l’extension du site de Nogent-le-Rotrou. Il fit honneur à B. Braun en évoquant l’intérêt de l’entreprise, qui assure le maintien et la création d’emploi, et investit en France et en Europe.
+Entre 2015 et 2020, le Groupe B. Braun s’inscrit dans des projets d’investissements importants en France : 200 millions, ont été alloués à l’innovation, la production et les services,.
 En septembre 2020, B. Braun s'oriente sur une stratégie sur les 10 prochaines années. Les utilisateurs, les patients et les professionnels de la santé sont au centre de tous ces développements. En plus du marché hospitalier, B. Braun se concentre également plus étroitement sur le secteur de l'ambulatoire.
 </t>
         </is>
@@ -548,23 +562,25 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Groupe développe, fabrique et distribue des solutions et services dans les domaines suivants :
 Chirurgie générale et stérilisation
-Chirurgie laparoscopique[15]
-Chirurgie orthopédique[16]
+Chirurgie laparoscopique
+Chirurgie orthopédique
 Neurochirurgie
 Prévention des infections
 Stomathérapie
-Anesthésie Loco-Régionale &amp; Réanimation[17]
+Anesthésie Loco-Régionale &amp; Réanimation
 Nutrition
-Perfusion[18]
-Dialyse[19]
+Perfusion
+Dialyse
 Traitement des plaies
 Traitement extra-corporel du sang
 Traitement vasculaire interventionnel
-Troubles de la continence[20],[21],[22]
+Troubles de la continence
 Vétérinaire</t>
         </is>
       </c>
@@ -593,21 +609,13 @@
           <t>B. Braun en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B. Braun en France développe, produit et distribue des solutions (dispositifs médicaux, implants, spécialités pharmaceutiques et services de soins) dans les domaines de la chirurgie, la perfusion, les soins intensifs, l’anesthésie et les soins associés aux pathologies chroniques. L'entreprise est dirigée depuis avril 2020 par Christelle Garier-Reboul[23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. Braun en France développe, produit et distribue des solutions (dispositifs médicaux, implants, spécialités pharmaceutiques et services de soins) dans les domaines de la chirurgie, la perfusion, les soins intensifs, l’anesthésie et les soins associés aux pathologies chroniques. L'entreprise est dirigée depuis avril 2020 par Christelle Garier-Reboul.
 L’entreprise accompagne les patients et les professionnels de santé tout au long du parcours de soin, de l’hôpital au domicile.
-Employeur en France
-B. Braun compte aujourd’hui 2 000 collaborateurs[3], répartis sur plusieurs activités et plusieurs sites et dispose de 17 centres et unités de dialyse en France[24]. Ce serait ainsi le deuxième employeur du dispositif médical en France[25],[26].
-Sites en France
-Les différents sites en France[27] :
-Saint-Cloud (Hauts-de-Seine) : Siège social regroupant services clients, marchés, commerciaux et les fonctions supports de B. Braun Medical et B. Braun Avitum[28]
-Chasseneuil (Vienne) : Site spécialisé dans la conception, le développement et la fabrication des filtres à veine cave et des chambres implantables[29].
-Chaumont (Haute-Marne) : Site spécialisé dans la production de prothèses de genou et de leur instrumentation de pose[30].
-Ludres (Meurthe-et-Moselle) : Site spécialisé dans la logistique et le service après-vente[31].
-Nogent-le-Rotrou (Eure-et-Loir) : Site spécialisé dans la conception et la fabrication de produits dans le domaine de l’urologie et de la perfusion[32],[33],[13].
-Saint-Jean-de-Luz (Pyrénées-Atlantiques) : Site spécialisé dans la fabrication de poches de recueil pour l’entérostomie, le drainage postopératoire et l’urostomie[26].
-Sarlat (Dordogne) : Le site de Suturex &amp; Renodex développe une large gamme d'aiguilles chirurgicales atraumatiques, correspondant à tous les besoins en matière de sutures[34],[35],[36],[37].</t>
+</t>
         </is>
       </c>
     </row>
@@ -632,14 +640,96 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>B. Braun en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Employeur en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B. Braun compte aujourd’hui 2 000 collaborateurs, répartis sur plusieurs activités et plusieurs sites et dispose de 17 centres et unités de dialyse en France. Ce serait ainsi le deuxième employeur du dispositif médical en France,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B._Braun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B._Braun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B. Braun en France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sites en France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les différents sites en France :
+Saint-Cloud (Hauts-de-Seine) : Siège social regroupant services clients, marchés, commerciaux et les fonctions supports de B. Braun Medical et B. Braun Avitum
+Chasseneuil (Vienne) : Site spécialisé dans la conception, le développement et la fabrication des filtres à veine cave et des chambres implantables.
+Chaumont (Haute-Marne) : Site spécialisé dans la production de prothèses de genou et de leur instrumentation de pose.
+Ludres (Meurthe-et-Moselle) : Site spécialisé dans la logistique et le service après-vente.
+Nogent-le-Rotrou (Eure-et-Loir) : Site spécialisé dans la conception et la fabrication de produits dans le domaine de l’urologie et de la perfusion.
+Saint-Jean-de-Luz (Pyrénées-Atlantiques) : Site spécialisé dans la fabrication de poches de recueil pour l’entérostomie, le drainage postopératoire et l’urostomie.
+Sarlat (Dordogne) : Le site de Suturex &amp; Renodex développe une large gamme d'aiguilles chirurgicales atraumatiques, correspondant à tous les besoins en matière de sutures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B._Braun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B._Braun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>L’innovation chez B. Braun</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La volonté de B. Braun est d’accompagner les professionnels de santé et les patients dans toutes les étapes du parcours de soins.
-Ainsi, l’entreprise développe des programmes et services connectés dans plusieurs domaines thérapeutiques, et a notamment lancé en 2016 un logiciel permettant de réduire l’erreur médicamenteuse[38], représentant entre 9 000 et 12 000 morts par an[39],[40],[41].
-Dans sa recherche de progrès, B. Braun se mobilise également pour les patients souffrant de maladies chroniques, comme les insuffisants rénaux. L’entreprise a organisé son centre de dialyse de Manosque[42] en intégrant des outils de e-santé, par exemple des consultations par visioconférence.
+Ainsi, l’entreprise développe des programmes et services connectés dans plusieurs domaines thérapeutiques, et a notamment lancé en 2016 un logiciel permettant de réduire l’erreur médicamenteuse, représentant entre 9 000 et 12 000 morts par an.
+Dans sa recherche de progrès, B. Braun se mobilise également pour les patients souffrant de maladies chroniques, comme les insuffisants rénaux. L’entreprise a organisé son centre de dialyse de Manosque en intégrant des outils de e-santé, par exemple des consultations par visioconférence.
 Pour B. Braun l’innovation est issue de la recherche et du développement de nouveaux produits adaptés à la vie du patient.
 </t>
         </is>
